--- a/data_complete.xlsx
+++ b/data_complete.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="757">
   <si>
     <t>year</t>
   </si>
@@ -2231,6 +2231,96 @@
   </si>
   <si>
     <t>St-Raphaël</t>
+  </si>
+  <si>
+    <t>first_mountain_origin</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>second_mountain_origin</t>
+  </si>
+  <si>
+    <t>third_mountain_origin</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>first_sprint_origin</t>
+  </si>
+  <si>
+    <t>second_sprint_origin</t>
+  </si>
+  <si>
+    <t>third_sprint_origin</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Royaume-Uni</t>
+  </si>
+  <si>
+    <t>Irlande</t>
+  </si>
+  <si>
+    <t>Australie</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Etats-Unis</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Ouzbékistan</t>
+  </si>
+  <si>
+    <t>Lettonie</t>
+  </si>
+  <si>
+    <t>Slovaquie</t>
+  </si>
+  <si>
+    <t>Danemark</t>
+  </si>
+  <si>
+    <t>Norvège</t>
+  </si>
+  <si>
+    <t>Afrique du Sud</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>Pologne</t>
+  </si>
+  <si>
+    <t>Slovénie</t>
   </si>
 </sst>
 </file>
@@ -2561,10 +2651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE108"/>
+  <dimension ref="A1:AK108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE90" sqref="AE90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2583,20 +2674,20 @@
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14.77734375" customWidth="1"/>
     <col min="15" max="16" width="13.5546875" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" customWidth="1"/>
-    <col min="21" max="21" width="23.44140625" customWidth="1"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" customWidth="1"/>
-    <col min="24" max="25" width="24.44140625" customWidth="1"/>
-    <col min="26" max="26" width="22.77734375" customWidth="1"/>
-    <col min="27" max="27" width="23.109375" customWidth="1"/>
-    <col min="28" max="28" width="20" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" customWidth="1"/>
-    <col min="30" max="30" width="18.21875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="20" max="21" width="19.44140625" customWidth="1"/>
+    <col min="22" max="23" width="23.44140625" customWidth="1"/>
+    <col min="24" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="28" width="24.44140625" customWidth="1"/>
+    <col min="29" max="30" width="22.77734375" customWidth="1"/>
+    <col min="31" max="32" width="23.109375" customWidth="1"/>
+    <col min="33" max="34" width="20" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" customWidth="1"/>
+    <col min="36" max="36" width="18.21875" customWidth="1"/>
+    <col min="37" max="37" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>519</v>
       </c>
@@ -2658,40 +2749,58 @@
         <v>528</v>
       </c>
       <c r="U1" t="s">
+        <v>727</v>
+      </c>
+      <c r="V1" t="s">
         <v>530</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>729</v>
+      </c>
+      <c r="X1" t="s">
         <v>529</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z1" t="s">
         <v>534</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>536</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>531</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE1" t="s">
         <v>532</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AG1" t="s">
         <v>533</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI1" t="s">
         <v>538</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>539</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2750,7 +2859,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2808,11 +2917,11 @@
       <c r="S3" s="1">
         <v>1667</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2856,7 +2965,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2900,7 +3009,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2988,7 +3097,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3032,7 +3141,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:37">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3076,7 +3185,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3120,7 +3229,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3164,7 +3273,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3223,7 +3332,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3282,7 +3391,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3341,7 +3450,7 @@
         <v>7148</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3400,7 +3509,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3459,7 +3568,7 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3518,7 +3627,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3577,7 +3686,7 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3636,7 +3745,7 @@
         <v>8968</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3695,7 +3804,7 @@
         <v>9332</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3754,7 +3863,7 @@
         <v>9696</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3813,7 +3922,7 @@
         <v>10060</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3872,7 +3981,7 @@
         <v>10424</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3931,7 +4040,7 @@
         <v>10802</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3990,7 +4099,7 @@
         <v>11166</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4049,7 +4158,7 @@
         <v>11530</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4108,7 +4217,7 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4167,7 +4276,7 @@
         <v>12258</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4226,7 +4335,7 @@
         <v>12629</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4288,22 +4397,31 @@
         <v>397</v>
       </c>
       <c r="U30" t="s">
+        <v>728</v>
+      </c>
+      <c r="V30" t="s">
         <v>398</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
+        <v>728</v>
+      </c>
+      <c r="X30" t="s">
         <v>541</v>
       </c>
-      <c r="W30">
+      <c r="Y30" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z30">
         <v>118</v>
       </c>
-      <c r="X30">
+      <c r="AA30">
         <v>92</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4365,22 +4483,31 @@
         <v>542</v>
       </c>
       <c r="U31" t="s">
+        <v>731</v>
+      </c>
+      <c r="V31" t="s">
         <v>398</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
+        <v>728</v>
+      </c>
+      <c r="X31" t="s">
         <v>543</v>
       </c>
-      <c r="W31">
+      <c r="Y31" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z31">
         <v>132</v>
       </c>
-      <c r="X31">
+      <c r="AA31">
         <v>112</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4442,22 +4569,31 @@
         <v>397</v>
       </c>
       <c r="U32" t="s">
+        <v>728</v>
+      </c>
+      <c r="V32" t="s">
         <v>97</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
+        <v>732</v>
+      </c>
+      <c r="X32" t="s">
         <v>398</v>
       </c>
-      <c r="W32">
+      <c r="Y32" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z32">
         <v>114</v>
       </c>
-      <c r="X32">
+      <c r="AA32">
         <v>96</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4519,22 +4655,31 @@
         <v>100</v>
       </c>
       <c r="U33" t="s">
+        <v>732</v>
+      </c>
+      <c r="V33" t="s">
         <v>397</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
+        <v>728</v>
+      </c>
+      <c r="X33" t="s">
         <v>544</v>
       </c>
-      <c r="W33">
+      <c r="Y33" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z33">
         <v>107</v>
       </c>
-      <c r="X33">
+      <c r="AA33">
         <v>79</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4596,22 +4741,31 @@
         <v>398</v>
       </c>
       <c r="U34" t="s">
+        <v>728</v>
+      </c>
+      <c r="V34" t="s">
         <v>544</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
+        <v>728</v>
+      </c>
+      <c r="X34" t="s">
         <v>545</v>
       </c>
-      <c r="W34">
+      <c r="Y34" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z34">
         <v>86</v>
       </c>
-      <c r="X34">
+      <c r="AA34">
         <v>84</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4673,22 +4827,31 @@
         <v>108</v>
       </c>
       <c r="U35" t="s">
+        <v>732</v>
+      </c>
+      <c r="V35" t="s">
         <v>546</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" t="s">
         <v>107</v>
       </c>
-      <c r="W35">
+      <c r="Y35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35">
         <v>98</v>
       </c>
-      <c r="X35">
+      <c r="AA35">
         <v>89</v>
       </c>
-      <c r="Y35">
+      <c r="AB35">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4750,22 +4913,31 @@
         <v>100</v>
       </c>
       <c r="U36" t="s">
+        <v>732</v>
+      </c>
+      <c r="V36" t="s">
         <v>546</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" t="s">
         <v>107</v>
       </c>
-      <c r="W36">
+      <c r="Y36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z36">
         <v>62</v>
       </c>
-      <c r="X36">
+      <c r="AA36">
         <v>43</v>
       </c>
-      <c r="Y36">
+      <c r="AB36">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4827,22 +4999,31 @@
         <v>115</v>
       </c>
       <c r="U37" t="s">
+        <v>732</v>
+      </c>
+      <c r="V37" t="s">
         <v>100</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
+        <v>732</v>
+      </c>
+      <c r="X37" t="s">
         <v>107</v>
       </c>
-      <c r="W37">
+      <c r="Y37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37">
         <v>81</v>
       </c>
-      <c r="X37">
+      <c r="AA37">
         <v>68</v>
       </c>
-      <c r="Y37">
+      <c r="AB37">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4904,22 +5085,31 @@
         <v>118</v>
       </c>
       <c r="U38" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" t="s">
         <v>117</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
+        <v>728</v>
+      </c>
+      <c r="X38" t="s">
         <v>107</v>
       </c>
-      <c r="W38">
+      <c r="Y38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z38">
         <v>58</v>
       </c>
-      <c r="X38">
+      <c r="AA38">
         <v>44</v>
       </c>
-      <c r="Y38">
+      <c r="AB38">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4981,22 +5171,31 @@
         <v>404</v>
       </c>
       <c r="U39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V39" t="s">
         <v>100</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
+        <v>732</v>
+      </c>
+      <c r="X39" t="s">
         <v>115</v>
       </c>
-      <c r="W39">
+      <c r="Y39" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z39">
         <v>60</v>
       </c>
-      <c r="X39">
+      <c r="AA39">
         <v>59</v>
       </c>
-      <c r="Y39">
+      <c r="AB39">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5058,22 +5257,31 @@
         <v>115</v>
       </c>
       <c r="U40" t="s">
+        <v>732</v>
+      </c>
+      <c r="V40" t="s">
         <v>550</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
+        <v>731</v>
+      </c>
+      <c r="X40" t="s">
         <v>107</v>
       </c>
-      <c r="W40">
+      <c r="Y40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z40">
         <v>92</v>
       </c>
-      <c r="X40">
+      <c r="AA40">
         <v>69</v>
       </c>
-      <c r="Y40">
+      <c r="AB40">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5135,40 +5343,58 @@
         <v>551</v>
       </c>
       <c r="U41" t="s">
+        <v>731</v>
+      </c>
+      <c r="V41" t="s">
         <v>118</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" t="s">
         <v>552</v>
       </c>
-      <c r="W41">
+      <c r="Y41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z41">
         <v>54</v>
       </c>
-      <c r="X41">
+      <c r="AA41">
         <v>36</v>
       </c>
-      <c r="Y41">
+      <c r="AB41">
         <v>30</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AC41" t="s">
         <v>553</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AD41" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE41" t="s">
         <v>554</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AF41" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG41" t="s">
         <v>404</v>
       </c>
-      <c r="AC41">
+      <c r="AH41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI41">
         <v>271</v>
       </c>
-      <c r="AD41">
+      <c r="AJ41">
         <v>307</v>
       </c>
-      <c r="AE41">
+      <c r="AK41">
         <v>407</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5230,40 +5456,58 @@
         <v>153</v>
       </c>
       <c r="U42" t="s">
+        <v>731</v>
+      </c>
+      <c r="V42" t="s">
         <v>118</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" t="s">
         <v>555</v>
       </c>
-      <c r="W42">
+      <c r="Y42" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z42">
         <v>95</v>
       </c>
-      <c r="X42">
+      <c r="AA42">
         <v>53</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
         <v>38</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AC42" t="s">
         <v>556</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AD42" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE42" t="s">
         <v>117</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AF42" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG42" t="s">
         <v>553</v>
       </c>
-      <c r="AC42">
+      <c r="AH42" t="s">
+        <v>736</v>
+      </c>
+      <c r="AI42">
         <v>215.5</v>
       </c>
-      <c r="AD42">
+      <c r="AJ42">
         <v>284.5</v>
       </c>
-      <c r="AE42">
+      <c r="AK42">
         <v>286.5</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5325,40 +5569,58 @@
         <v>135</v>
       </c>
       <c r="U43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" t="s">
         <v>118</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" t="s">
         <v>134</v>
       </c>
-      <c r="W43">
+      <c r="Y43" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z43">
         <v>84</v>
       </c>
-      <c r="X43">
+      <c r="AA43">
         <v>70</v>
       </c>
-      <c r="Y43">
+      <c r="AB43">
         <v>44</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AC43" t="s">
         <v>117</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AD43" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE43" t="s">
         <v>557</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AF43" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG43" t="s">
         <v>558</v>
       </c>
-      <c r="AC43">
+      <c r="AH43" t="s">
+        <v>731</v>
+      </c>
+      <c r="AI43">
         <v>322</v>
       </c>
-      <c r="AD43">
+      <c r="AJ43">
         <v>399</v>
       </c>
-      <c r="AE43">
+      <c r="AK43">
         <v>409</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5420,40 +5682,58 @@
         <v>135</v>
       </c>
       <c r="U44" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" t="s">
         <v>153</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
+        <v>731</v>
+      </c>
+      <c r="X44" t="s">
         <v>559</v>
       </c>
-      <c r="W44">
+      <c r="Y44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z44">
         <v>71</v>
       </c>
-      <c r="X44">
+      <c r="AA44">
         <v>67</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
         <v>65</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AC44" t="s">
         <v>117</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AD44" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE44" t="s">
         <v>560</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AF44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG44" t="s">
         <v>561</v>
       </c>
-      <c r="AC44">
+      <c r="AH44" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI44">
         <v>280</v>
       </c>
-      <c r="AD44">
+      <c r="AJ44">
         <v>464</v>
       </c>
-      <c r="AE44">
+      <c r="AK44">
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5515,40 +5795,58 @@
         <v>158</v>
       </c>
       <c r="U45" t="s">
+        <v>732</v>
+      </c>
+      <c r="V45" t="s">
         <v>562</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" t="s">
         <v>145</v>
       </c>
-      <c r="W45">
+      <c r="Y45" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z45">
         <v>44</v>
       </c>
-      <c r="X45">
+      <c r="AA45">
         <v>43</v>
       </c>
-      <c r="Y45">
+      <c r="AB45">
         <v>32</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AC45" t="s">
         <v>563</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AD45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="s">
         <v>564</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AF45" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG45" t="s">
         <v>146</v>
       </c>
-      <c r="AC45">
+      <c r="AH45" t="s">
+        <v>738</v>
+      </c>
+      <c r="AI45">
         <v>301</v>
       </c>
-      <c r="AD45">
+      <c r="AJ45">
         <v>317</v>
       </c>
-      <c r="AE45">
+      <c r="AK45">
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5610,40 +5908,58 @@
         <v>153</v>
       </c>
       <c r="U46" t="s">
+        <v>731</v>
+      </c>
+      <c r="V46" t="s">
         <v>135</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
+        <v>27</v>
+      </c>
+      <c r="X46" t="s">
         <v>565</v>
       </c>
-      <c r="W46">
+      <c r="Y46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z46">
         <v>79</v>
       </c>
-      <c r="X46">
+      <c r="AA46">
         <v>64</v>
       </c>
-      <c r="Y46">
+      <c r="AB46">
         <v>34</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AC46" t="s">
         <v>566</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AD46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE46" t="s">
         <v>567</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AF46" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG46" t="s">
         <v>568</v>
       </c>
-      <c r="AC46">
+      <c r="AH46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI46">
         <v>247</v>
       </c>
-      <c r="AD46">
+      <c r="AJ46">
         <v>406</v>
       </c>
-      <c r="AE46">
+      <c r="AK46">
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5705,40 +6021,58 @@
         <v>153</v>
       </c>
       <c r="U47" t="s">
+        <v>731</v>
+      </c>
+      <c r="V47" t="s">
         <v>135</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
+        <v>27</v>
+      </c>
+      <c r="X47" t="s">
         <v>569</v>
       </c>
-      <c r="W47">
+      <c r="Y47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z47">
         <v>73</v>
       </c>
-      <c r="X47">
+      <c r="AA47">
         <v>68</v>
       </c>
-      <c r="Y47">
+      <c r="AB47">
         <v>65</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AC47" t="s">
         <v>568</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AD47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE47" t="s">
         <v>569</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AF47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG47" t="s">
         <v>144</v>
       </c>
-      <c r="AC47">
+      <c r="AH47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI47">
         <v>613</v>
       </c>
-      <c r="AD47">
+      <c r="AJ47">
         <v>524</v>
       </c>
-      <c r="AE47">
+      <c r="AK47">
         <v>503</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:37">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5800,40 +6134,58 @@
         <v>570</v>
       </c>
       <c r="U48" t="s">
+        <v>732</v>
+      </c>
+      <c r="V48" t="s">
         <v>571</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" t="s">
         <v>159</v>
       </c>
-      <c r="W48">
+      <c r="Y48" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z48">
         <v>56</v>
       </c>
-      <c r="X48">
+      <c r="AA48">
         <v>52</v>
       </c>
-      <c r="Y48">
+      <c r="AB48">
         <v>44</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AC48" t="s">
         <v>566</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AD48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE48" t="s">
         <v>159</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AF48" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG48" t="s">
         <v>158</v>
       </c>
-      <c r="AC48">
+      <c r="AH48" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI48">
         <v>74</v>
       </c>
-      <c r="AD48">
+      <c r="AJ48">
         <v>40</v>
       </c>
-      <c r="AE48">
+      <c r="AK48">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:37">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5895,40 +6247,58 @@
         <v>570</v>
       </c>
       <c r="U49" t="s">
+        <v>732</v>
+      </c>
+      <c r="V49" t="s">
         <v>135</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
+        <v>27</v>
+      </c>
+      <c r="X49" t="s">
         <v>572</v>
       </c>
-      <c r="W49">
+      <c r="Y49" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z49">
         <v>95</v>
       </c>
-      <c r="X49">
+      <c r="AA49">
         <v>61</v>
       </c>
-      <c r="Y49">
+      <c r="AB49">
         <v>48</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AC49" t="s">
         <v>568</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AD49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE49" t="s">
         <v>573</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AF49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG49" t="s">
         <v>162</v>
       </c>
-      <c r="AC49">
+      <c r="AH49" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI49">
         <v>174</v>
       </c>
-      <c r="AD49">
+      <c r="AJ49">
         <v>169</v>
       </c>
-      <c r="AE49">
+      <c r="AK49">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:37">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5990,40 +6360,58 @@
         <v>153</v>
       </c>
       <c r="U50" t="s">
+        <v>731</v>
+      </c>
+      <c r="V50" t="s">
         <v>570</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
+        <v>732</v>
+      </c>
+      <c r="X50" t="s">
         <v>166</v>
       </c>
-      <c r="W50">
+      <c r="Y50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z50">
         <v>137</v>
       </c>
-      <c r="X50">
+      <c r="AA50">
         <v>77</v>
       </c>
-      <c r="Y50">
+      <c r="AB50">
         <v>70</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AC50" t="s">
         <v>574</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AD50" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE50" t="s">
         <v>575</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AF50" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG50" t="s">
         <v>566</v>
       </c>
-      <c r="AC50">
+      <c r="AH50" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI50">
         <v>173</v>
       </c>
-      <c r="AD50">
+      <c r="AJ50">
         <v>144</v>
       </c>
-      <c r="AE50">
+      <c r="AK50">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:37">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6085,40 +6473,58 @@
         <v>153</v>
       </c>
       <c r="U51" t="s">
+        <v>731</v>
+      </c>
+      <c r="V51" t="s">
         <v>166</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
+        <v>12</v>
+      </c>
+      <c r="X51" t="s">
         <v>576</v>
       </c>
-      <c r="W51">
+      <c r="Y51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z51">
         <v>147</v>
       </c>
-      <c r="X51">
+      <c r="AA51">
         <v>70</v>
       </c>
-      <c r="Y51">
+      <c r="AB51">
         <v>68</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AC51" t="s">
         <v>577</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AD51" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE51" t="s">
         <v>144</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AF51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG51" t="s">
         <v>153</v>
       </c>
-      <c r="AC51">
+      <c r="AH51" t="s">
+        <v>731</v>
+      </c>
+      <c r="AI51">
         <v>275</v>
       </c>
-      <c r="AD51">
+      <c r="AJ51">
         <v>138</v>
       </c>
-      <c r="AE51">
+      <c r="AK51">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:37">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6180,40 +6586,58 @@
         <v>153</v>
       </c>
       <c r="U52" t="s">
+        <v>731</v>
+      </c>
+      <c r="V52" t="s">
         <v>409</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
+        <v>731</v>
+      </c>
+      <c r="X52" t="s">
         <v>166</v>
       </c>
-      <c r="W52">
+      <c r="Y52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z52">
         <v>173</v>
       </c>
-      <c r="X52">
+      <c r="AA52">
         <v>167</v>
       </c>
-      <c r="Y52">
+      <c r="AB52">
         <v>90</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AC52" t="s">
         <v>179</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AD52" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE52" t="s">
         <v>578</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AF52" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG52" t="s">
         <v>574</v>
       </c>
-      <c r="AC52">
+      <c r="AH52" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI52">
         <v>208</v>
       </c>
-      <c r="AD52">
+      <c r="AJ52">
         <v>199</v>
       </c>
-      <c r="AE52">
+      <c r="AK52">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:37">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6275,40 +6699,58 @@
         <v>409</v>
       </c>
       <c r="U53" t="s">
+        <v>731</v>
+      </c>
+      <c r="V53" t="s">
         <v>579</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
+        <v>728</v>
+      </c>
+      <c r="X53" t="s">
         <v>581</v>
       </c>
-      <c r="W53">
+      <c r="Y53" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z53">
         <v>133</v>
       </c>
-      <c r="X53">
+      <c r="AA53">
         <v>74</v>
       </c>
-      <c r="Y53">
+      <c r="AB53">
         <v>68</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AC53" t="s">
         <v>179</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AD53" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE53" t="s">
         <v>580</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AF53" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG53" t="s">
         <v>173</v>
       </c>
-      <c r="AC53">
+      <c r="AH53" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI53">
         <v>144</v>
       </c>
-      <c r="AD53">
+      <c r="AJ53">
         <v>130</v>
       </c>
-      <c r="AE53">
+      <c r="AK53">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:37">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6370,40 +6812,58 @@
         <v>409</v>
       </c>
       <c r="U54" t="s">
+        <v>731</v>
+      </c>
+      <c r="V54" t="s">
         <v>581</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
+        <v>731</v>
+      </c>
+      <c r="X54" t="s">
         <v>582</v>
       </c>
-      <c r="W54">
+      <c r="Y54" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z54">
         <v>123</v>
       </c>
-      <c r="X54">
+      <c r="AA54">
         <v>98</v>
       </c>
-      <c r="Y54">
+      <c r="AB54">
         <v>51</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AC54" t="s">
         <v>583</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AD54" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE54" t="s">
         <v>584</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AF54" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG54" t="s">
         <v>578</v>
       </c>
-      <c r="AC54">
+      <c r="AH54" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI54">
         <v>211</v>
       </c>
-      <c r="AD54">
+      <c r="AJ54">
         <v>189</v>
       </c>
-      <c r="AE54">
+      <c r="AK54">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:37">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6465,40 +6925,58 @@
         <v>409</v>
       </c>
       <c r="U55" t="s">
+        <v>731</v>
+      </c>
+      <c r="V55" t="s">
         <v>184</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
+        <v>732</v>
+      </c>
+      <c r="X55" t="s">
         <v>166</v>
       </c>
-      <c r="W55">
+      <c r="Y55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z55">
         <v>122</v>
       </c>
-      <c r="X55">
+      <c r="AA55">
         <v>68</v>
       </c>
-      <c r="Y55">
+      <c r="AB55">
         <v>53</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AC55" t="s">
         <v>179</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AD55" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE55" t="s">
         <v>580</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AF55" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG55" t="s">
         <v>585</v>
       </c>
-      <c r="AC55">
+      <c r="AH55" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI55">
         <v>154</v>
       </c>
-      <c r="AD55">
+      <c r="AJ55">
         <v>119</v>
       </c>
-      <c r="AE55">
+      <c r="AK55">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6560,40 +7038,58 @@
         <v>582</v>
       </c>
       <c r="U56" t="s">
+        <v>731</v>
+      </c>
+      <c r="V56" t="s">
         <v>586</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
+        <v>732</v>
+      </c>
+      <c r="X56" t="s">
         <v>409</v>
       </c>
-      <c r="W56">
+      <c r="Y56" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z56">
         <v>96</v>
       </c>
-      <c r="X56">
+      <c r="AA56">
         <v>84</v>
       </c>
-      <c r="Y56">
+      <c r="AB56">
         <v>72</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AC56" t="s">
         <v>586</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AD56" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE56" t="s">
         <v>587</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AF56" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG56" t="s">
         <v>588</v>
       </c>
-      <c r="AC56">
+      <c r="AH56" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI56">
         <v>241</v>
       </c>
-      <c r="AD56">
+      <c r="AJ56">
         <v>219</v>
       </c>
-      <c r="AE56">
+      <c r="AK56">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:37">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6655,40 +7151,58 @@
         <v>193</v>
       </c>
       <c r="U57" t="s">
+        <v>728</v>
+      </c>
+      <c r="V57" t="s">
         <v>183</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
+        <v>12</v>
+      </c>
+      <c r="X57" t="s">
         <v>581</v>
       </c>
-      <c r="W57">
+      <c r="Y57" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z57">
         <v>155</v>
       </c>
-      <c r="X57">
+      <c r="AA57">
         <v>94</v>
       </c>
-      <c r="Y57">
+      <c r="AB57">
         <v>80</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AC57" t="s">
         <v>193</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AD57" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE57" t="s">
         <v>179</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AF57" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG57" t="s">
         <v>589</v>
       </c>
-      <c r="AC57">
+      <c r="AH57" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI57">
         <v>244</v>
       </c>
-      <c r="AD57">
+      <c r="AJ57">
         <v>150</v>
       </c>
-      <c r="AE57">
+      <c r="AK57">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:37">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6750,40 +7264,58 @@
         <v>193</v>
       </c>
       <c r="U58" t="s">
+        <v>728</v>
+      </c>
+      <c r="V58" t="s">
         <v>590</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" t="s">
+        <v>731</v>
+      </c>
+      <c r="X58" t="s">
         <v>591</v>
       </c>
-      <c r="W58">
+      <c r="Y58" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z58">
         <v>128</v>
       </c>
-      <c r="X58">
+      <c r="AA58">
         <v>94</v>
       </c>
-      <c r="Y58">
+      <c r="AB58">
         <v>85</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AC58" t="s">
         <v>587</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AD58" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE58" t="s">
         <v>193</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AF58" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG58" t="s">
         <v>592</v>
       </c>
-      <c r="AC58">
+      <c r="AH58" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI58">
         <v>212</v>
       </c>
-      <c r="AD58">
+      <c r="AJ58">
         <v>207</v>
       </c>
-      <c r="AE58">
+      <c r="AK58">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:37">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6845,40 +7377,58 @@
         <v>201</v>
       </c>
       <c r="U59" t="s">
+        <v>728</v>
+      </c>
+      <c r="V59" t="s">
         <v>197</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
+        <v>737</v>
+      </c>
+      <c r="X59" t="s">
         <v>193</v>
       </c>
-      <c r="W59">
+      <c r="Y59" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z59">
         <v>228</v>
       </c>
-      <c r="X59">
+      <c r="AA59">
         <v>179</v>
       </c>
-      <c r="Y59">
+      <c r="AB59">
         <v>136</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AC59" t="s">
         <v>193</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AD59" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE59" t="s">
         <v>593</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AF59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG59" t="s">
         <v>584</v>
       </c>
-      <c r="AC59">
+      <c r="AH59" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI59">
         <v>202</v>
       </c>
-      <c r="AD59">
+      <c r="AJ59">
         <v>186</v>
       </c>
-      <c r="AE59">
+      <c r="AK59">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:37">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6940,40 +7490,58 @@
         <v>201</v>
       </c>
       <c r="U60" t="s">
+        <v>728</v>
+      </c>
+      <c r="V60" t="s">
         <v>193</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
+        <v>728</v>
+      </c>
+      <c r="X60" t="s">
         <v>222</v>
       </c>
-      <c r="W60">
+      <c r="Y60" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z60">
         <v>229</v>
       </c>
-      <c r="X60">
+      <c r="AA60">
         <v>211</v>
       </c>
-      <c r="Y60">
+      <c r="AB60">
         <v>163</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AC60" t="s">
         <v>193</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AD60" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE60" t="s">
         <v>594</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AF60" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG60" t="s">
         <v>197</v>
       </c>
-      <c r="AC60">
+      <c r="AH60" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI60">
         <v>196</v>
       </c>
-      <c r="AD60">
+      <c r="AJ60">
         <v>135</v>
       </c>
-      <c r="AE60">
+      <c r="AK60">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:37">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7035,40 +7603,58 @@
         <v>595</v>
       </c>
       <c r="U61" t="s">
+        <v>731</v>
+      </c>
+      <c r="V61" t="s">
         <v>596</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
+        <v>731</v>
+      </c>
+      <c r="X61" t="s">
         <v>411</v>
       </c>
-      <c r="W61">
+      <c r="Y61" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z61">
         <v>225</v>
       </c>
-      <c r="X61">
+      <c r="AA61">
         <v>216</v>
       </c>
-      <c r="Y61">
+      <c r="AB61">
         <v>192</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AC61" t="s">
         <v>597</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AD61" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE61" t="s">
         <v>197</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AF61" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG61" t="s">
         <v>411</v>
       </c>
-      <c r="AC61">
+      <c r="AH61" t="s">
+        <v>731</v>
+      </c>
+      <c r="AI61">
         <v>187</v>
       </c>
-      <c r="AD61">
+      <c r="AJ61">
         <v>168</v>
       </c>
-      <c r="AE61">
+      <c r="AK61">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7130,40 +7716,58 @@
         <v>598</v>
       </c>
       <c r="U62" t="s">
+        <v>731</v>
+      </c>
+      <c r="V62" t="s">
         <v>193</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
+        <v>728</v>
+      </c>
+      <c r="X62" t="s">
         <v>599</v>
       </c>
-      <c r="W62">
+      <c r="Y62" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z62">
         <v>161</v>
       </c>
-      <c r="X62">
+      <c r="AA62">
         <v>118</v>
       </c>
-      <c r="Y62">
+      <c r="AB62">
         <v>109</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AC62" t="s">
         <v>600</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AD62" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE62" t="s">
         <v>193</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AF62" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG62" t="s">
         <v>601</v>
       </c>
-      <c r="AC62">
+      <c r="AH62" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI62">
         <v>283</v>
       </c>
-      <c r="AD62">
+      <c r="AJ62">
         <v>270</v>
       </c>
-      <c r="AE62">
+      <c r="AK62">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:37">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7225,40 +7829,58 @@
         <v>201</v>
       </c>
       <c r="U63" t="s">
+        <v>728</v>
+      </c>
+      <c r="V63" t="s">
         <v>193</v>
       </c>
-      <c r="V63" t="s">
+      <c r="W63" t="s">
+        <v>728</v>
+      </c>
+      <c r="X63" t="s">
         <v>197</v>
       </c>
-      <c r="W63">
+      <c r="Y63" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z63">
         <v>285</v>
       </c>
-      <c r="X63">
+      <c r="AA63">
         <v>206</v>
       </c>
-      <c r="Y63">
+      <c r="AB63">
         <v>171</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AC63" t="s">
         <v>594</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AD63" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE63" t="s">
         <v>193</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AF63" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG63" t="s">
         <v>602</v>
       </c>
-      <c r="AC63">
+      <c r="AH63" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI63">
         <v>342</v>
       </c>
-      <c r="AD63">
+      <c r="AJ63">
         <v>240</v>
       </c>
-      <c r="AE63">
+      <c r="AK63">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:37">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7320,40 +7942,58 @@
         <v>603</v>
       </c>
       <c r="U64" t="s">
+        <v>732</v>
+      </c>
+      <c r="V64" t="s">
         <v>201</v>
       </c>
-      <c r="V64" t="s">
+      <c r="W64" t="s">
+        <v>728</v>
+      </c>
+      <c r="X64" t="s">
         <v>197</v>
       </c>
-      <c r="W64">
+      <c r="Y64" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z64">
         <v>170</v>
       </c>
-      <c r="X64">
+      <c r="AA64">
         <v>169</v>
       </c>
-      <c r="Y64">
+      <c r="AB64">
         <v>119</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AC64" t="s">
         <v>604</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AD64" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE64" t="s">
         <v>605</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AF64" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG64" t="s">
         <v>606</v>
       </c>
-      <c r="AC64">
+      <c r="AH64" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI64">
         <v>293</v>
       </c>
-      <c r="AD64">
+      <c r="AJ64">
         <v>140</v>
       </c>
-      <c r="AE64">
+      <c r="AK64">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7415,40 +8055,58 @@
         <v>201</v>
       </c>
       <c r="U65" t="s">
+        <v>728</v>
+      </c>
+      <c r="V65" t="s">
         <v>218</v>
       </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
+        <v>737</v>
+      </c>
+      <c r="X65" t="s">
         <v>595</v>
       </c>
-      <c r="W65">
+      <c r="Y65" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z65">
         <v>244</v>
       </c>
-      <c r="X65">
+      <c r="AA65">
         <v>174</v>
       </c>
-      <c r="Y65">
+      <c r="AB65">
         <v>144</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AC65" t="s">
         <v>606</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AD65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="s">
         <v>607</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AF65" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG65" t="s">
         <v>608</v>
       </c>
-      <c r="AC65">
+      <c r="AH65" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI65">
         <v>236</v>
       </c>
-      <c r="AD65">
+      <c r="AJ65">
         <v>140</v>
       </c>
-      <c r="AE65">
+      <c r="AK65">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7510,40 +8168,58 @@
         <v>609</v>
       </c>
       <c r="U66" t="s">
+        <v>12</v>
+      </c>
+      <c r="V66" t="s">
         <v>221</v>
       </c>
-      <c r="V66" t="s">
+      <c r="W66" t="s">
+        <v>12</v>
+      </c>
+      <c r="X66" t="s">
         <v>197</v>
       </c>
-      <c r="W66">
+      <c r="Y66" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z66">
         <v>187</v>
       </c>
-      <c r="X66">
+      <c r="AA66">
         <v>176</v>
       </c>
-      <c r="Y66">
+      <c r="AB66">
         <v>155</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AC66" t="s">
         <v>604</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AD66" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE66" t="s">
         <v>606</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AF66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG66" t="s">
         <v>221</v>
       </c>
-      <c r="AC66">
+      <c r="AH66" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI66">
         <v>242</v>
       </c>
-      <c r="AD66">
+      <c r="AJ66">
         <v>189</v>
       </c>
-      <c r="AE66">
+      <c r="AK66">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7605,40 +8281,58 @@
         <v>610</v>
       </c>
       <c r="U67" t="s">
+        <v>732</v>
+      </c>
+      <c r="V67" t="s">
         <v>221</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
+        <v>12</v>
+      </c>
+      <c r="X67" t="s">
         <v>609</v>
       </c>
-      <c r="W67">
+      <c r="Y67" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z67">
         <v>239</v>
       </c>
-      <c r="X67">
+      <c r="AA67">
         <v>196</v>
       </c>
-      <c r="Y67">
+      <c r="AB67">
         <v>158</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AC67" t="s">
         <v>221</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AD67" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE67" t="s">
         <v>608</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AF67" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG67" t="s">
         <v>197</v>
       </c>
-      <c r="AC67">
+      <c r="AH67" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI67">
         <v>253</v>
       </c>
-      <c r="AD67">
+      <c r="AJ67">
         <v>157</v>
       </c>
-      <c r="AE67">
+      <c r="AK67">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7700,40 +8394,58 @@
         <v>228</v>
       </c>
       <c r="U68" t="s">
+        <v>12</v>
+      </c>
+      <c r="V68" t="s">
         <v>611</v>
       </c>
-      <c r="V68" t="s">
+      <c r="W68" t="s">
+        <v>728</v>
+      </c>
+      <c r="X68" t="s">
         <v>612</v>
       </c>
-      <c r="W68">
+      <c r="Y68" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z68">
         <v>223</v>
       </c>
-      <c r="X68">
+      <c r="AA68">
         <v>162</v>
       </c>
-      <c r="Y68">
+      <c r="AB68">
         <v>147</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AC68" t="s">
         <v>613</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AD68" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE68" t="s">
         <v>614</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AF68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG68" t="s">
         <v>612</v>
       </c>
-      <c r="AC68">
+      <c r="AH68" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI68">
         <v>194</v>
       </c>
-      <c r="AD68">
+      <c r="AJ68">
         <v>153</v>
       </c>
-      <c r="AE68">
+      <c r="AK68">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7795,40 +8507,58 @@
         <v>201</v>
       </c>
       <c r="U69" t="s">
+        <v>728</v>
+      </c>
+      <c r="V69" t="s">
         <v>221</v>
       </c>
-      <c r="V69" t="s">
+      <c r="W69" t="s">
+        <v>12</v>
+      </c>
+      <c r="X69" t="s">
         <v>615</v>
       </c>
-      <c r="W69">
+      <c r="Y69" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z69">
         <v>284</v>
       </c>
-      <c r="X69">
+      <c r="AA69">
         <v>222</v>
       </c>
-      <c r="Y69">
+      <c r="AB69">
         <v>168</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AC69" t="s">
         <v>604</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AD69" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE69" t="s">
         <v>616</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AF69" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG69" t="s">
         <v>221</v>
       </c>
-      <c r="AC69">
+      <c r="AH69" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI69">
         <v>428</v>
       </c>
-      <c r="AD69">
+      <c r="AJ69">
         <v>222</v>
       </c>
-      <c r="AE69">
+      <c r="AK69">
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7890,40 +8620,58 @@
         <v>617</v>
       </c>
       <c r="U70" t="s">
+        <v>12</v>
+      </c>
+      <c r="V70" t="s">
         <v>615</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
+        <v>12</v>
+      </c>
+      <c r="X70" t="s">
         <v>618</v>
       </c>
-      <c r="W70">
+      <c r="Y70" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z70">
         <v>278</v>
       </c>
-      <c r="X70">
+      <c r="AA70">
         <v>237</v>
       </c>
-      <c r="Y70">
+      <c r="AB70">
         <v>205</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AC70" t="s">
         <v>614</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AD70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE70" t="s">
         <v>221</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AF70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG70" t="s">
         <v>619</v>
       </c>
-      <c r="AC70">
+      <c r="AH70" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI70">
         <v>429</v>
       </c>
-      <c r="AD70">
+      <c r="AJ70">
         <v>152</v>
       </c>
-      <c r="AE70">
+      <c r="AK70">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:37">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7985,40 +8733,58 @@
         <v>201</v>
       </c>
       <c r="U71" t="s">
+        <v>728</v>
+      </c>
+      <c r="V71" t="s">
         <v>620</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
+        <v>744</v>
+      </c>
+      <c r="X71" t="s">
         <v>621</v>
       </c>
-      <c r="W71">
+      <c r="Y71" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z71">
         <v>272</v>
       </c>
-      <c r="X71">
+      <c r="AA71">
         <v>195</v>
       </c>
-      <c r="Y71">
+      <c r="AB71">
         <v>157</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AC71" t="s">
         <v>614</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AD71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE71" t="s">
         <v>622</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AF71" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG71" t="s">
         <v>238</v>
       </c>
-      <c r="AC71">
+      <c r="AH71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI71">
         <v>360</v>
       </c>
-      <c r="AD71">
+      <c r="AJ71">
         <v>144</v>
       </c>
-      <c r="AE71">
+      <c r="AK71">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:37">
       <c r="A72">
         <v>70</v>
       </c>
@@ -8080,40 +8846,58 @@
         <v>621</v>
       </c>
       <c r="U72" t="s">
+        <v>741</v>
+      </c>
+      <c r="V72" t="s">
         <v>238</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
+        <v>12</v>
+      </c>
+      <c r="X72" t="s">
         <v>239</v>
       </c>
-      <c r="W72">
+      <c r="Y72" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z72">
         <v>284</v>
       </c>
-      <c r="X72">
+      <c r="AA72">
         <v>212</v>
       </c>
-      <c r="Y72">
+      <c r="AB72">
         <v>140</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AC72" t="s">
         <v>623</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AD72" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE72" t="s">
         <v>614</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AF72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG72" t="s">
         <v>624</v>
       </c>
-      <c r="AC72">
+      <c r="AH72" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI72">
         <v>322</v>
       </c>
-      <c r="AD72">
+      <c r="AJ72">
         <v>318</v>
       </c>
-      <c r="AE72">
+      <c r="AK72">
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:37">
       <c r="A73">
         <v>71</v>
       </c>
@@ -8175,40 +8959,58 @@
         <v>625</v>
       </c>
       <c r="U73" t="s">
+        <v>744</v>
+      </c>
+      <c r="V73" t="s">
         <v>254</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
+        <v>731</v>
+      </c>
+      <c r="X73" t="s">
         <v>621</v>
       </c>
-      <c r="W73">
+      <c r="Y73" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z73">
         <v>440</v>
       </c>
-      <c r="X73">
+      <c r="AA73">
         <v>274</v>
       </c>
-      <c r="Y73">
+      <c r="AB73">
         <v>270</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AC73" t="s">
         <v>614</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AD73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE73" t="s">
         <v>243</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AF73" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG73" t="s">
         <v>246</v>
       </c>
-      <c r="AC73">
+      <c r="AH73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI73">
         <v>434</v>
       </c>
-      <c r="AD73">
+      <c r="AJ73">
         <v>332</v>
       </c>
-      <c r="AE73">
+      <c r="AK73">
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>72</v>
       </c>
@@ -8270,40 +9072,58 @@
         <v>221</v>
       </c>
       <c r="U74" t="s">
+        <v>12</v>
+      </c>
+      <c r="V74" t="s">
         <v>625</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
+        <v>744</v>
+      </c>
+      <c r="X74" t="s">
         <v>243</v>
       </c>
-      <c r="W74">
+      <c r="Y74" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z74">
         <v>351</v>
       </c>
-      <c r="X74">
+      <c r="AA74">
         <v>270</v>
       </c>
-      <c r="Y74">
+      <c r="AB74">
         <v>265</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AC74" t="s">
         <v>624</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AD74" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE74" t="s">
         <v>626</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AF74" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG74" t="s">
         <v>221</v>
       </c>
-      <c r="AC74">
+      <c r="AH74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI74">
         <v>277</v>
       </c>
-      <c r="AD74">
+      <c r="AJ74">
         <v>232</v>
       </c>
-      <c r="AE74">
+      <c r="AK74">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:37">
       <c r="A75">
         <v>73</v>
       </c>
@@ -8365,40 +9185,58 @@
         <v>625</v>
       </c>
       <c r="U75" t="s">
+        <v>744</v>
+      </c>
+      <c r="V75" t="s">
         <v>627</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
+        <v>731</v>
+      </c>
+      <c r="X75" t="s">
         <v>628</v>
       </c>
-      <c r="W75">
+      <c r="Y75" t="s">
+        <v>746</v>
+      </c>
+      <c r="Z75">
         <v>452</v>
       </c>
-      <c r="X75">
+      <c r="AA75">
         <v>314</v>
       </c>
-      <c r="Y75">
+      <c r="AB75">
         <v>277</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AC75" t="s">
         <v>629</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AD75" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE75" t="s">
         <v>246</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AF75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG75" t="s">
         <v>254</v>
       </c>
-      <c r="AC75">
+      <c r="AH75" t="s">
+        <v>731</v>
+      </c>
+      <c r="AI75">
         <v>263</v>
       </c>
-      <c r="AD75">
+      <c r="AJ75">
         <v>247</v>
       </c>
-      <c r="AE75">
+      <c r="AK75">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:37">
       <c r="A76">
         <v>74</v>
       </c>
@@ -8460,40 +9298,58 @@
         <v>259</v>
       </c>
       <c r="U76" t="s">
+        <v>737</v>
+      </c>
+      <c r="V76" t="s">
         <v>630</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
+        <v>737</v>
+      </c>
+      <c r="X76" t="s">
         <v>254</v>
       </c>
-      <c r="W76">
+      <c r="Y76" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z76">
         <v>326</v>
       </c>
-      <c r="X76">
+      <c r="AA76">
         <v>248</v>
       </c>
-      <c r="Y76">
+      <c r="AB76">
         <v>223</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AC76" t="s">
         <v>631</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AD76" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE76" t="s">
         <v>632</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AF76" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG76" t="s">
         <v>614</v>
       </c>
-      <c r="AC76">
+      <c r="AH76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI76">
         <v>278</v>
       </c>
-      <c r="AD76">
+      <c r="AJ76">
         <v>193</v>
       </c>
-      <c r="AE76">
+      <c r="AK76">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:37">
       <c r="A77">
         <v>75</v>
       </c>
@@ -8555,40 +9411,58 @@
         <v>633</v>
       </c>
       <c r="U77" t="s">
+        <v>737</v>
+      </c>
+      <c r="V77" t="s">
         <v>254</v>
       </c>
-      <c r="V77" t="s">
+      <c r="W77" t="s">
+        <v>731</v>
+      </c>
+      <c r="X77" t="s">
         <v>259</v>
       </c>
-      <c r="W77">
+      <c r="Y77" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z77">
         <v>441</v>
       </c>
-      <c r="X77">
+      <c r="AA77">
         <v>311</v>
       </c>
-      <c r="Y77">
+      <c r="AB77">
         <v>257</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AC77" t="s">
         <v>614</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AD77" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE77" t="s">
         <v>634</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AF77" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG77" t="s">
         <v>259</v>
       </c>
-      <c r="AC77">
+      <c r="AH77" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI77">
         <v>277</v>
       </c>
-      <c r="AD77">
+      <c r="AJ77">
         <v>194</v>
       </c>
-      <c r="AE77">
+      <c r="AK77">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:37">
       <c r="A78">
         <v>76</v>
       </c>
@@ -8650,40 +9524,58 @@
         <v>635</v>
       </c>
       <c r="U78" t="s">
+        <v>12</v>
+      </c>
+      <c r="V78" t="s">
         <v>267</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
+        <v>732</v>
+      </c>
+      <c r="X78" t="s">
         <v>636</v>
       </c>
-      <c r="W78">
+      <c r="Y78" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z78">
         <v>321</v>
       </c>
-      <c r="X78">
+      <c r="AA78">
         <v>179</v>
       </c>
-      <c r="Y78">
+      <c r="AB78">
         <v>160</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AC78" t="s">
         <v>637</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AD78" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE78" t="s">
         <v>638</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AF78" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG78" t="s">
         <v>268</v>
       </c>
-      <c r="AC78">
+      <c r="AH78" t="s">
+        <v>737</v>
+      </c>
+      <c r="AI78">
         <v>256</v>
       </c>
-      <c r="AD78">
+      <c r="AJ78">
         <v>221</v>
       </c>
-      <c r="AE78">
+      <c r="AK78">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:37">
       <c r="A79">
         <v>77</v>
       </c>
@@ -8745,40 +9637,58 @@
         <v>267</v>
       </c>
       <c r="U79" t="s">
+        <v>732</v>
+      </c>
+      <c r="V79" t="s">
         <v>635</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
+        <v>12</v>
+      </c>
+      <c r="X79" t="s">
         <v>639</v>
       </c>
-      <c r="W79">
+      <c r="Y79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z79">
         <v>312</v>
       </c>
-      <c r="X79">
+      <c r="AA79">
         <v>277</v>
       </c>
-      <c r="Y79">
+      <c r="AB79">
         <v>164</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AC79" t="s">
         <v>640</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AD79" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE79" t="s">
         <v>641</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AF79" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG79" t="s">
         <v>637</v>
       </c>
-      <c r="AC79">
+      <c r="AH79" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI79">
         <v>316</v>
       </c>
-      <c r="AD79">
+      <c r="AJ79">
         <v>263</v>
       </c>
-      <c r="AE79">
+      <c r="AK79">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>78</v>
       </c>
@@ -8840,40 +9750,58 @@
         <v>267</v>
       </c>
       <c r="U80" t="s">
+        <v>732</v>
+      </c>
+      <c r="V80" t="s">
         <v>290</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
+        <v>12</v>
+      </c>
+      <c r="X80" t="s">
         <v>642</v>
       </c>
-      <c r="W80">
+      <c r="Y80" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z80">
         <v>410</v>
       </c>
-      <c r="X80">
+      <c r="AA80">
         <v>245</v>
       </c>
-      <c r="Y80">
+      <c r="AB80">
         <v>209</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AC80" t="s">
         <v>641</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AD80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE80" t="s">
         <v>638</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AF80" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG80" t="s">
         <v>267</v>
       </c>
-      <c r="AC80">
+      <c r="AH80" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI80">
         <v>293</v>
       </c>
-      <c r="AD80">
+      <c r="AJ80">
         <v>262</v>
       </c>
-      <c r="AE80">
+      <c r="AK80">
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:37">
       <c r="A81">
         <v>79</v>
       </c>
@@ -8935,40 +9863,58 @@
         <v>278</v>
       </c>
       <c r="U81" t="s">
+        <v>736</v>
+      </c>
+      <c r="V81" t="s">
         <v>267</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
+        <v>732</v>
+      </c>
+      <c r="X81" t="s">
         <v>643</v>
       </c>
-      <c r="W81">
+      <c r="Y81" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z81">
         <v>449</v>
       </c>
-      <c r="X81">
+      <c r="AA81">
         <v>301</v>
       </c>
-      <c r="Y81">
+      <c r="AB81">
         <v>286</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AC81" t="s">
         <v>640</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AD81" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE81" t="s">
         <v>638</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AF81" t="s">
+        <v>728</v>
+      </c>
+      <c r="AG81" t="s">
         <v>644</v>
       </c>
-      <c r="AC81">
+      <c r="AH81" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI81">
         <v>298</v>
       </c>
-      <c r="AD81">
+      <c r="AJ81">
         <v>157</v>
       </c>
-      <c r="AE81">
+      <c r="AK81">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:37">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9030,40 +9976,58 @@
         <v>290</v>
       </c>
       <c r="U82" t="s">
+        <v>12</v>
+      </c>
+      <c r="V82" t="s">
         <v>283</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
+        <v>732</v>
+      </c>
+      <c r="X82" t="s">
         <v>282</v>
       </c>
-      <c r="W82">
+      <c r="Y82" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z82">
         <v>392</v>
       </c>
-      <c r="X82">
+      <c r="AA82">
         <v>243</v>
       </c>
-      <c r="Y82">
+      <c r="AB82">
         <v>219</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AC82" t="s">
         <v>640</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AD82" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE82" t="s">
         <v>645</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AF82" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG82" t="s">
         <v>646</v>
       </c>
-      <c r="AC82">
+      <c r="AH82" t="s">
+        <v>750</v>
+      </c>
+      <c r="AI82">
         <v>322</v>
       </c>
-      <c r="AD82">
+      <c r="AJ82">
         <v>273</v>
       </c>
-      <c r="AE82">
+      <c r="AK82">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:37">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9125,40 +10089,58 @@
         <v>290</v>
       </c>
       <c r="U83" t="s">
+        <v>12</v>
+      </c>
+      <c r="V83" t="s">
         <v>267</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
+        <v>732</v>
+      </c>
+      <c r="X83" t="s">
         <v>417</v>
       </c>
-      <c r="W83">
+      <c r="Y83" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z83">
         <v>438</v>
       </c>
-      <c r="X83">
+      <c r="AA83">
         <v>214</v>
       </c>
-      <c r="Y83">
+      <c r="AB83">
         <v>205</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AC83" t="s">
         <v>641</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AD83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE83" t="s">
         <v>640</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AF83" t="s">
+        <v>748</v>
+      </c>
+      <c r="AG83" t="s">
         <v>416</v>
       </c>
-      <c r="AC83">
+      <c r="AH83" t="s">
+        <v>731</v>
+      </c>
+      <c r="AI83">
         <v>333</v>
       </c>
-      <c r="AD83">
+      <c r="AJ83">
         <v>271</v>
       </c>
-      <c r="AE83">
+      <c r="AK83">
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:37">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9220,40 +10202,58 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
+        <v>12</v>
+      </c>
+      <c r="V84" t="s">
         <v>286</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
+        <v>751</v>
+      </c>
+      <c r="X84" t="s">
         <v>647</v>
       </c>
-      <c r="W84">
+      <c r="Y84" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z84">
         <v>383</v>
       </c>
-      <c r="X84">
+      <c r="AA84">
         <v>274</v>
       </c>
-      <c r="Y84">
+      <c r="AB84">
         <v>176</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AC84" t="s">
         <v>648</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AD84" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE84" t="s">
         <v>649</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AF84" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG84" t="s">
         <v>650</v>
       </c>
-      <c r="AC84">
+      <c r="AH84" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI84">
         <v>335</v>
       </c>
-      <c r="AD84">
+      <c r="AJ84">
         <v>284</v>
       </c>
-      <c r="AE84">
+      <c r="AK84">
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:37">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9315,40 +10315,58 @@
         <v>290</v>
       </c>
       <c r="U85" t="s">
+        <v>12</v>
+      </c>
+      <c r="V85" t="s">
         <v>289</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
+        <v>739</v>
+      </c>
+      <c r="X85" t="s">
         <v>651</v>
       </c>
-      <c r="W85">
+      <c r="Y85" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z85">
         <v>579</v>
       </c>
-      <c r="X85">
+      <c r="AA85">
         <v>328</v>
       </c>
-      <c r="Y85">
+      <c r="AB85">
         <v>309</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AC85" t="s">
         <v>648</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="AD85" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE85" t="s">
         <v>649</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AF85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG85" t="s">
         <v>652</v>
       </c>
-      <c r="AC85">
+      <c r="AH85" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI85">
         <v>350</v>
       </c>
-      <c r="AD85">
+      <c r="AJ85">
         <v>223</v>
       </c>
-      <c r="AE85">
+      <c r="AK85">
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:37">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9410,40 +10428,58 @@
         <v>653</v>
       </c>
       <c r="U86" t="s">
+        <v>12</v>
+      </c>
+      <c r="V86" t="s">
         <v>283</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
+        <v>732</v>
+      </c>
+      <c r="X86" t="s">
         <v>654</v>
       </c>
-      <c r="W86">
+      <c r="Y86" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z86">
         <v>200</v>
       </c>
-      <c r="X86">
+      <c r="AA86">
         <v>175</v>
       </c>
-      <c r="Y86">
+      <c r="AB86">
         <v>165</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AC86" t="s">
         <v>648</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AD86" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE86" t="s">
         <v>655</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AF86" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG86" t="s">
         <v>656</v>
       </c>
-      <c r="AC86">
+      <c r="AH86" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI86">
         <v>327</v>
       </c>
-      <c r="AD86">
+      <c r="AJ86">
         <v>230</v>
       </c>
-      <c r="AE86">
+      <c r="AK86">
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:37">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9505,40 +10541,58 @@
         <v>290</v>
       </c>
       <c r="U87" t="s">
+        <v>12</v>
+      </c>
+      <c r="V87" t="s">
         <v>654</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
+        <v>732</v>
+      </c>
+      <c r="X87" t="s">
         <v>657</v>
       </c>
-      <c r="W87">
+      <c r="Y87" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z87">
         <v>279</v>
       </c>
-      <c r="X87">
+      <c r="AA87">
         <v>226</v>
       </c>
-      <c r="Y87">
+      <c r="AB87">
         <v>205</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AC87" t="s">
         <v>648</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AD87" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE87" t="s">
         <v>655</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AF87" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG87" t="s">
         <v>658</v>
       </c>
-      <c r="AC87">
+      <c r="AH87" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI87">
         <v>327</v>
       </c>
-      <c r="AD87">
+      <c r="AJ87">
         <v>275</v>
       </c>
-      <c r="AE87">
+      <c r="AK87">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:37">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9600,40 +10654,58 @@
         <v>659</v>
       </c>
       <c r="U88" t="s">
+        <v>744</v>
+      </c>
+      <c r="V88" t="s">
         <v>660</v>
       </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
+        <v>731</v>
+      </c>
+      <c r="X88" t="s">
         <v>290</v>
       </c>
-      <c r="W88">
+      <c r="Y88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z88">
         <v>347</v>
       </c>
-      <c r="X88">
+      <c r="AA88">
         <v>283</v>
       </c>
-      <c r="Y88">
+      <c r="AB88">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AC88" t="s">
         <v>648</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AD88" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE88" t="s">
         <v>661</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AF88" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG88" t="s">
         <v>662</v>
       </c>
-      <c r="AC88">
+      <c r="AH88" t="s">
+        <v>749</v>
+      </c>
+      <c r="AI88">
         <v>321</v>
       </c>
-      <c r="AD88">
+      <c r="AJ88">
         <v>203</v>
       </c>
-      <c r="AE88">
+      <c r="AK88">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:37">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9695,40 +10767,58 @@
         <v>641</v>
       </c>
       <c r="U89" t="s">
+        <v>12</v>
+      </c>
+      <c r="V89" t="s">
         <v>289</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>739</v>
+      </c>
+      <c r="X89" t="s">
         <v>663</v>
       </c>
-      <c r="W89">
+      <c r="Y89" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z89">
         <v>258</v>
       </c>
-      <c r="X89">
+      <c r="AA89">
         <v>211</v>
       </c>
-      <c r="Y89">
+      <c r="AB89">
         <v>200</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AC89" t="s">
         <v>648</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="AD89" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE89" t="s">
         <v>655</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AF89" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG89" t="s">
         <v>664</v>
       </c>
-      <c r="AC89">
+      <c r="AH89" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI89">
         <v>252</v>
       </c>
-      <c r="AD89">
+      <c r="AJ89">
         <v>244</v>
       </c>
-      <c r="AE89">
+      <c r="AK89">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:37">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9790,40 +10880,58 @@
         <v>641</v>
       </c>
       <c r="U90" t="s">
+        <v>12</v>
+      </c>
+      <c r="V90" t="s">
         <v>665</v>
       </c>
-      <c r="V90" t="s">
+      <c r="W90" t="s">
+        <v>728</v>
+      </c>
+      <c r="X90" t="s">
         <v>659</v>
       </c>
-      <c r="W90">
+      <c r="Y90" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z90">
         <v>262</v>
       </c>
-      <c r="X90">
+      <c r="AA90">
         <v>178</v>
       </c>
-      <c r="Y90">
+      <c r="AB90">
         <v>162</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AC90" t="s">
         <v>661</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="AD90" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE90" t="s">
         <v>648</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AF90" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG90" t="s">
         <v>655</v>
       </c>
-      <c r="AC90">
+      <c r="AH90" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI90">
         <v>280</v>
       </c>
-      <c r="AD90">
+      <c r="AJ90">
         <v>261</v>
       </c>
-      <c r="AE90">
+      <c r="AK90">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:37">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9885,37 +10993,55 @@
         <v>290</v>
       </c>
       <c r="U91" t="s">
+        <v>12</v>
+      </c>
+      <c r="V91" t="s">
         <v>647</v>
       </c>
-      <c r="V91" t="s">
+      <c r="W91" t="s">
+        <v>736</v>
+      </c>
+      <c r="X91" t="s">
         <v>303</v>
       </c>
-      <c r="W91">
+      <c r="Y91" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z91">
         <v>324</v>
       </c>
-      <c r="X91">
+      <c r="AA91">
         <v>187</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AC91" t="s">
         <v>666</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AD91" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE91" t="s">
         <v>661</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AF91" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG91" t="s">
         <v>648</v>
       </c>
-      <c r="AC91">
+      <c r="AH91" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI91">
         <v>216</v>
       </c>
-      <c r="AD91">
+      <c r="AJ91">
         <v>214</v>
       </c>
-      <c r="AE91">
+      <c r="AK91">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:37">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9971,46 +11097,64 @@
         <v>38171</v>
       </c>
       <c r="S92" s="1">
-        <v>37827</v>
+        <v>38193</v>
       </c>
       <c r="T92" t="s">
         <v>290</v>
       </c>
       <c r="U92" t="s">
+        <v>12</v>
+      </c>
+      <c r="V92" t="s">
         <v>303</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>745</v>
+      </c>
+      <c r="X92" t="s">
         <v>667</v>
       </c>
-      <c r="W92">
+      <c r="Y92" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z92">
         <v>226</v>
       </c>
-      <c r="X92">
+      <c r="AA92">
         <v>172</v>
       </c>
-      <c r="Y92">
+      <c r="AB92">
         <v>119</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AC92" t="s">
         <v>661</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="AD92" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE92" t="s">
         <v>668</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AF92" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG92" t="s">
         <v>648</v>
       </c>
-      <c r="AC92">
+      <c r="AH92" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI92">
         <v>272</v>
       </c>
-      <c r="AD92">
+      <c r="AJ92">
         <v>247</v>
       </c>
-      <c r="AE92">
+      <c r="AK92">
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:37">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10072,40 +11216,58 @@
         <v>667</v>
       </c>
       <c r="U93" t="s">
+        <v>751</v>
+      </c>
+      <c r="V93" t="s">
         <v>669</v>
       </c>
-      <c r="V93" t="s">
+      <c r="W93" t="s">
+        <v>731</v>
+      </c>
+      <c r="X93" t="s">
         <v>303</v>
       </c>
-      <c r="W93">
+      <c r="Y93" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z93">
         <v>185</v>
       </c>
-      <c r="X93">
+      <c r="AA93">
         <v>155</v>
       </c>
-      <c r="Y93">
+      <c r="AB93">
         <v>99</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AC93" t="s">
         <v>668</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="AD93" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE93" t="s">
         <v>655</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AF93" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG93" t="s">
         <v>661</v>
       </c>
-      <c r="AC93">
+      <c r="AH93" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI93">
         <v>194</v>
       </c>
-      <c r="AD93">
+      <c r="AJ93">
         <v>182</v>
       </c>
-      <c r="AE93">
+      <c r="AK93">
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:37">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10167,40 +11329,58 @@
         <v>667</v>
       </c>
       <c r="U94" t="s">
+        <v>751</v>
+      </c>
+      <c r="V94" t="s">
         <v>326</v>
       </c>
-      <c r="V94" t="s">
+      <c r="W94" t="s">
+        <v>745</v>
+      </c>
+      <c r="X94" t="s">
         <v>670</v>
       </c>
-      <c r="W94">
+      <c r="Y94" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z94">
         <v>166</v>
       </c>
-      <c r="X94">
+      <c r="AA94">
         <v>131</v>
       </c>
-      <c r="Y94">
+      <c r="AB94">
         <v>113</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AC94" t="s">
         <v>661</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AD94" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE94" t="s">
         <v>648</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AF94" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG94" t="s">
         <v>668</v>
       </c>
-      <c r="AC94">
+      <c r="AH94" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI94">
         <v>288</v>
       </c>
-      <c r="AD94">
+      <c r="AJ94">
         <v>199</v>
       </c>
-      <c r="AE94">
+      <c r="AK94">
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:37">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10262,40 +11442,58 @@
         <v>671</v>
       </c>
       <c r="U95" t="s">
+        <v>744</v>
+      </c>
+      <c r="V95" t="s">
         <v>331</v>
       </c>
-      <c r="V95" t="s">
+      <c r="W95" t="s">
+        <v>731</v>
+      </c>
+      <c r="X95" t="s">
         <v>672</v>
       </c>
-      <c r="W95">
+      <c r="Y95" t="s">
+        <v>747</v>
+      </c>
+      <c r="Z95">
         <v>206</v>
       </c>
-      <c r="X95">
+      <c r="AA95">
         <v>128</v>
       </c>
-      <c r="Y95">
+      <c r="AB95">
         <v>105</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AC95" t="s">
         <v>673</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AD95" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE95" t="s">
         <v>674</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AF95" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG95" t="s">
         <v>648</v>
       </c>
-      <c r="AC95">
+      <c r="AH95" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI95">
         <v>256</v>
       </c>
-      <c r="AD95">
+      <c r="AJ95">
         <v>234</v>
       </c>
-      <c r="AE95">
+      <c r="AK95">
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:37">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10357,40 +11555,58 @@
         <v>675</v>
       </c>
       <c r="U96" t="s">
+        <v>738</v>
+      </c>
+      <c r="V96" t="s">
         <v>327</v>
       </c>
-      <c r="V96" t="s">
+      <c r="W96" t="s">
+        <v>731</v>
+      </c>
+      <c r="X96" t="s">
         <v>676</v>
       </c>
-      <c r="W96">
+      <c r="Y96" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z96">
         <v>120</v>
       </c>
-      <c r="X96">
+      <c r="AA96">
         <v>80</v>
       </c>
-      <c r="Y96">
+      <c r="AB96">
         <v>80</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AC96" t="s">
         <v>677</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AD96" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE96" t="s">
         <v>668</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AF96" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG96" t="s">
         <v>648</v>
       </c>
-      <c r="AC96">
+      <c r="AH96" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI96">
         <v>270</v>
       </c>
-      <c r="AD96">
+      <c r="AJ96">
         <v>220</v>
       </c>
-      <c r="AE96">
+      <c r="AK96">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:37">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10452,40 +11668,58 @@
         <v>679</v>
       </c>
       <c r="U97" t="s">
+        <v>732</v>
+      </c>
+      <c r="V97" t="s">
         <v>678</v>
       </c>
-      <c r="V97" t="s">
+      <c r="W97" t="s">
+        <v>731</v>
+      </c>
+      <c r="X97" t="s">
         <v>331</v>
       </c>
-      <c r="W97">
+      <c r="Y97" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z97">
         <v>210</v>
       </c>
-      <c r="X97">
+      <c r="AA97">
         <v>135</v>
       </c>
-      <c r="Y97">
+      <c r="AB97">
         <v>126</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AC97" t="s">
         <v>668</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AD97" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE97" t="s">
         <v>680</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AF97" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG97" t="s">
         <v>681</v>
       </c>
-      <c r="AC97">
+      <c r="AH97" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI97">
         <v>280</v>
       </c>
-      <c r="AD97">
+      <c r="AJ97">
         <v>270</v>
       </c>
-      <c r="AE97">
+      <c r="AK97">
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10547,40 +11781,58 @@
         <v>682</v>
       </c>
       <c r="U98" t="s">
+        <v>12</v>
+      </c>
+      <c r="V98" t="s">
         <v>683</v>
       </c>
-      <c r="V98" t="s">
+      <c r="W98" t="s">
+        <v>12</v>
+      </c>
+      <c r="X98" t="s">
         <v>340</v>
       </c>
-      <c r="W98">
+      <c r="Y98" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z98">
         <v>143</v>
       </c>
-      <c r="X98">
+      <c r="AA98">
         <v>128</v>
       </c>
-      <c r="Y98">
+      <c r="AB98">
         <v>116</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AC98" t="s">
         <v>684</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AD98" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE98" t="s">
         <v>680</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AF98" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG98" t="s">
         <v>668</v>
       </c>
-      <c r="AC98">
+      <c r="AH98" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI98">
         <v>243</v>
       </c>
-      <c r="AD98">
+      <c r="AJ98">
         <v>232</v>
       </c>
-      <c r="AE98">
+      <c r="AK98">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:37">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10642,40 +11894,58 @@
         <v>419</v>
       </c>
       <c r="U99" t="s">
+        <v>731</v>
+      </c>
+      <c r="V99" t="s">
         <v>340</v>
       </c>
-      <c r="V99" t="s">
+      <c r="W99" t="s">
+        <v>27</v>
+      </c>
+      <c r="X99" t="s">
         <v>685</v>
       </c>
-      <c r="W99">
+      <c r="Y99" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z99">
         <v>108</v>
       </c>
-      <c r="X99">
+      <c r="AA99">
         <v>98</v>
       </c>
-      <c r="Y99">
+      <c r="AB99">
         <v>74</v>
       </c>
-      <c r="Z99" t="s">
+      <c r="AC99" t="s">
         <v>680</v>
       </c>
-      <c r="AA99" t="s">
+      <c r="AD99" t="s">
+        <v>741</v>
+      </c>
+      <c r="AE99" t="s">
         <v>686</v>
       </c>
-      <c r="AB99" t="s">
+      <c r="AF99" t="s">
+        <v>731</v>
+      </c>
+      <c r="AG99" t="s">
         <v>687</v>
       </c>
-      <c r="AC99">
+      <c r="AH99" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI99">
         <v>334</v>
       </c>
-      <c r="AD99">
+      <c r="AJ99">
         <v>272</v>
       </c>
-      <c r="AE99">
+      <c r="AK99">
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:37">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10737,40 +12007,58 @@
         <v>688</v>
       </c>
       <c r="U100" t="s">
+        <v>12</v>
+      </c>
+      <c r="V100" t="s">
         <v>689</v>
       </c>
-      <c r="V100" t="s">
+      <c r="W100" t="s">
+        <v>754</v>
+      </c>
+      <c r="X100" t="s">
         <v>690</v>
       </c>
-      <c r="W100">
+      <c r="Y100" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z100">
         <v>135</v>
       </c>
-      <c r="X100">
+      <c r="AA100">
         <v>123</v>
       </c>
-      <c r="Y100">
+      <c r="AB100">
         <v>77</v>
       </c>
-      <c r="Z100" t="s">
+      <c r="AC100" t="s">
         <v>691</v>
       </c>
-      <c r="AA100" t="s">
+      <c r="AD100" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE100" t="s">
         <v>692</v>
       </c>
-      <c r="AB100" t="s">
+      <c r="AF100" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG100" t="s">
         <v>693</v>
       </c>
-      <c r="AC100">
+      <c r="AH100" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI100">
         <v>421</v>
       </c>
-      <c r="AD100">
+      <c r="AJ100">
         <v>280</v>
       </c>
-      <c r="AE100">
+      <c r="AK100">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:37">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10832,40 +12120,58 @@
         <v>358</v>
       </c>
       <c r="U101" t="s">
+        <v>744</v>
+      </c>
+      <c r="V101" t="s">
         <v>353</v>
       </c>
-      <c r="V101" t="s">
+      <c r="W101" t="s">
+        <v>741</v>
+      </c>
+      <c r="X101" t="s">
         <v>694</v>
       </c>
-      <c r="W101">
+      <c r="Y101" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z101">
         <v>147</v>
       </c>
-      <c r="X101">
+      <c r="AA101">
         <v>136</v>
       </c>
-      <c r="Y101">
+      <c r="AB101">
         <v>117</v>
       </c>
-      <c r="Z101" t="s">
+      <c r="AC101" t="s">
         <v>691</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="AD101" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE101" t="s">
         <v>680</v>
       </c>
-      <c r="AB101" t="s">
+      <c r="AF101" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG101" t="s">
         <v>692</v>
       </c>
-      <c r="AC101">
+      <c r="AH101" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI101">
         <v>409</v>
       </c>
-      <c r="AD101">
+      <c r="AJ101">
         <v>312</v>
       </c>
-      <c r="AE101">
+      <c r="AK101">
         <v>267</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:37">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10927,40 +12233,58 @@
         <v>695</v>
       </c>
       <c r="U102" t="s">
+        <v>755</v>
+      </c>
+      <c r="V102" t="s">
         <v>354</v>
       </c>
-      <c r="V102" t="s">
+      <c r="W102" t="s">
+        <v>732</v>
+      </c>
+      <c r="X102" t="s">
         <v>696</v>
       </c>
-      <c r="W102">
+      <c r="Y102" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z102">
         <v>181</v>
       </c>
-      <c r="X102">
+      <c r="AA102">
         <v>168</v>
       </c>
-      <c r="Y102">
+      <c r="AB102">
         <v>112</v>
       </c>
-      <c r="Z102" t="s">
+      <c r="AC102" t="s">
         <v>691</v>
       </c>
-      <c r="AA102" t="s">
+      <c r="AD102" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE102" t="s">
         <v>697</v>
       </c>
-      <c r="AB102" t="s">
+      <c r="AF102" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG102" t="s">
         <v>698</v>
       </c>
-      <c r="AC102">
+      <c r="AH102" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI102">
         <v>431</v>
       </c>
-      <c r="AD102">
+      <c r="AJ102">
         <v>282</v>
       </c>
-      <c r="AE102">
+      <c r="AK102">
         <v>271</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:37">
       <c r="A103">
         <v>101</v>
       </c>
@@ -11022,40 +12346,58 @@
         <v>353</v>
       </c>
       <c r="U103" t="s">
+        <v>741</v>
+      </c>
+      <c r="V103" t="s">
         <v>358</v>
       </c>
-      <c r="V103" t="s">
+      <c r="W103" t="s">
+        <v>744</v>
+      </c>
+      <c r="X103" t="s">
         <v>366</v>
       </c>
-      <c r="W103">
+      <c r="Y103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z103">
         <v>119</v>
       </c>
-      <c r="X103">
+      <c r="AA103">
         <v>108</v>
       </c>
-      <c r="Y103">
+      <c r="AB103">
         <v>90</v>
       </c>
-      <c r="Z103" t="s">
+      <c r="AC103" t="s">
         <v>691</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="AD103" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE103" t="s">
         <v>692</v>
       </c>
-      <c r="AB103" t="s">
+      <c r="AF103" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG103" t="s">
         <v>699</v>
       </c>
-      <c r="AC103">
+      <c r="AH103" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI103">
         <v>432</v>
       </c>
-      <c r="AD103">
+      <c r="AJ103">
         <v>366</v>
       </c>
-      <c r="AE103">
+      <c r="AK103">
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11117,40 +12459,58 @@
         <v>695</v>
       </c>
       <c r="U104" t="s">
+        <v>755</v>
+      </c>
+      <c r="V104" t="s">
         <v>700</v>
       </c>
-      <c r="V104" t="s">
+      <c r="W104" t="s">
+        <v>728</v>
+      </c>
+      <c r="X104" t="s">
         <v>701</v>
       </c>
-      <c r="W104">
+      <c r="Y104" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z104">
         <v>209</v>
       </c>
-      <c r="X104">
+      <c r="AA104">
         <v>130</v>
       </c>
-      <c r="Y104">
+      <c r="AB104">
         <v>121</v>
       </c>
-      <c r="Z104" t="s">
+      <c r="AC104" t="s">
         <v>691</v>
       </c>
-      <c r="AA104" t="s">
+      <c r="AD104" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE104" t="s">
         <v>702</v>
       </c>
-      <c r="AB104" t="s">
+      <c r="AF104" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG104" t="s">
         <v>703</v>
       </c>
-      <c r="AC104">
+      <c r="AH104" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI104">
         <v>470</v>
       </c>
-      <c r="AD104">
+      <c r="AJ104">
         <v>228</v>
       </c>
-      <c r="AE104">
+      <c r="AK104">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:37">
       <c r="A105">
         <v>103</v>
       </c>
@@ -11212,40 +12572,58 @@
         <v>704</v>
       </c>
       <c r="U105" t="s">
+        <v>12</v>
+      </c>
+      <c r="V105" t="s">
         <v>705</v>
       </c>
-      <c r="V105" t="s">
+      <c r="W105" t="s">
+        <v>756</v>
+      </c>
+      <c r="X105" t="s">
         <v>700</v>
       </c>
-      <c r="W105">
+      <c r="Y105" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z105">
         <v>169</v>
       </c>
-      <c r="X105">
+      <c r="AA105">
         <v>80</v>
       </c>
-      <c r="Y105">
+      <c r="AB105">
         <v>65</v>
       </c>
-      <c r="Z105" t="s">
+      <c r="AC105" t="s">
         <v>703</v>
       </c>
-      <c r="AA105" t="s">
+      <c r="AD105" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE105" t="s">
         <v>692</v>
       </c>
-      <c r="AB105" t="s">
+      <c r="AF105" t="s">
+        <v>739</v>
+      </c>
+      <c r="AG105" t="s">
         <v>706</v>
       </c>
-      <c r="AC105">
+      <c r="AH105" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI105">
         <v>370</v>
       </c>
-      <c r="AD105">
+      <c r="AJ105">
         <v>234</v>
       </c>
-      <c r="AE105">
+      <c r="AK105">
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:37">
       <c r="A106">
         <v>104</v>
       </c>
@@ -11307,40 +12685,58 @@
         <v>707</v>
       </c>
       <c r="U106" t="s">
+        <v>12</v>
+      </c>
+      <c r="V106" t="s">
         <v>704</v>
       </c>
-      <c r="V106" t="s">
+      <c r="W106" t="s">
+        <v>12</v>
+      </c>
+      <c r="X106" t="s">
         <v>695</v>
       </c>
-      <c r="W106">
+      <c r="Y106" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z106">
         <v>170</v>
       </c>
-      <c r="X106">
+      <c r="AA106">
         <v>91</v>
       </c>
-      <c r="Y106">
+      <c r="AB106">
         <v>76</v>
       </c>
-      <c r="Z106" t="s">
+      <c r="AC106" t="s">
         <v>691</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="AD106" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE106" t="s">
         <v>697</v>
       </c>
-      <c r="AB106" t="s">
+      <c r="AF106" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG106" t="s">
         <v>708</v>
       </c>
-      <c r="AC106">
+      <c r="AH106" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI106">
         <v>477</v>
       </c>
-      <c r="AD106">
+      <c r="AJ106">
         <v>246</v>
       </c>
-      <c r="AE106">
+      <c r="AK106">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:37">
       <c r="A107">
         <v>105</v>
       </c>
@@ -11402,40 +12798,58 @@
         <v>366</v>
       </c>
       <c r="U107" t="s">
+        <v>12</v>
+      </c>
+      <c r="V107" t="s">
         <v>374</v>
       </c>
-      <c r="V107" t="s">
+      <c r="W107" t="s">
+        <v>744</v>
+      </c>
+      <c r="X107" t="s">
         <v>709</v>
       </c>
-      <c r="W107">
+      <c r="Y107" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z107">
         <v>86</v>
       </c>
-      <c r="X107">
+      <c r="AA107">
         <v>78</v>
       </c>
-      <c r="Y107">
+      <c r="AB107">
         <v>75</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="AC107" t="s">
         <v>691</v>
       </c>
-      <c r="AA107" t="s">
+      <c r="AD107" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE107" t="s">
         <v>710</v>
       </c>
-      <c r="AB107" t="s">
+      <c r="AF107" t="s">
+        <v>743</v>
+      </c>
+      <c r="AG107" t="s">
         <v>711</v>
       </c>
-      <c r="AC107">
+      <c r="AH107" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI107">
         <v>316</v>
       </c>
-      <c r="AD107">
+      <c r="AJ107">
         <v>248</v>
       </c>
-      <c r="AE107">
+      <c r="AK107">
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:37">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11497,36 +12911,54 @@
         <v>712</v>
       </c>
       <c r="U108" t="s">
+        <v>756</v>
+      </c>
+      <c r="V108" t="s">
         <v>713</v>
       </c>
-      <c r="V108" t="s">
+      <c r="W108" t="s">
+        <v>744</v>
+      </c>
+      <c r="X108" t="s">
         <v>705</v>
       </c>
-      <c r="W108">
+      <c r="Y108" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z108">
         <v>82</v>
       </c>
-      <c r="X108">
+      <c r="AA108">
         <v>74</v>
       </c>
-      <c r="Y108">
+      <c r="AB108">
         <v>67</v>
       </c>
-      <c r="Z108" t="s">
+      <c r="AC108" t="s">
         <v>714</v>
       </c>
-      <c r="AA108" t="s">
+      <c r="AD108" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE108" t="s">
         <v>691</v>
       </c>
-      <c r="AB108" t="s">
+      <c r="AF108" t="s">
+        <v>750</v>
+      </c>
+      <c r="AG108" t="s">
         <v>715</v>
       </c>
-      <c r="AC108">
+      <c r="AH108" t="s">
+        <v>732</v>
+      </c>
+      <c r="AI108">
         <v>380</v>
       </c>
-      <c r="AD108">
+      <c r="AJ108">
         <v>284</v>
       </c>
-      <c r="AE108">
+      <c r="AK108">
         <v>260</v>
       </c>
     </row>
